--- a/biology/Zoologie/Plegaderus_pitoni/Plegaderus_pitoni.xlsx
+++ b/biology/Zoologie/Plegaderus_pitoni/Plegaderus_pitoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hister pitoni
 Plegaderus pitoni est une espèce fossile de coléoptères clown du genre Plegaderus dans la sous-famille des Abraeinae, dans la famille des Histeridae.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est décrite sous le nom de Hister pitoni en 1935 par le paléontologue français Nicolas Théobald (1903-1981)[1]. Cette espèce est la seule fossile du genre[2].
-Holotype fossile
-Le spécimen holotype R07712 vient de la collection Piton, collection conservée au Muséum national d'histoire naturelle à Paris[3]. Ce spécimen du Néogène provient du lac Chambon, en Puy-de-Dôme. 
-Étymologie
-Son épithète spécifique est nommée d'après le nom du collectionneur et paléoentomologiste le Dr Louis Émile Piton, ami de Nicolas Théobald[4].
-Renommage
-L'espèce Hister pitoni est renommée Plegaderus pitoni en 2019 par Dégallier (d), Garrouste &amp; Nel[5],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est décrite sous le nom de Hister pitoni en 1935 par le paléontologue français Nicolas Théobald (1903-1981). Cette espèce est la seule fossile du genre.
 </t>
         </is>
       </c>
@@ -546,20 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Nous avons l'empreinte et la contre-empreinte d'un insecte de petite taille, privé des pattes et des antennes.
-La tête est retirée dans l'évasement du prothorax et arrondie à l'avant, avec deux petits yeux sur les côtés.
-Le corselet est fortement échancré à l'avant et prolongé sur les côtés par deux pointes ; les bords latéraux sont convexes ; il est arrondi à l'arrière ; sa surface est finement chagrinée.
-Les élytres ont des angles nettement coupés à l'avant ; leur bord antérieur est concave ; ils dépassent le prothorax. Ceci n'est probablement qu'une apparence, due au fait que les élytres fortement bombés ont été écrasés lors de la fossilisation. L'épipleure est étroite. Le bord sutural est marqué par une ligne brun foncé. Les élytres, appliqués contre l'abdomen, laissent à découvert les deux derniers segments. L'avant-dernier a une largeur de 0,5 mm ; le dernier est encore plus étroit et arrondi à l'extrémité[1].
-Dimensions
-Le spécimen holotype a une longueur totale de 1,1 mm; largeur de la tête : 0,3 mm; longueur du corselet :0,6 mm; longueur de l'élytre : 0,9 mm[6].
-Affinités
-L'attribution de l'échantillon aux Histeridae ne peut être mise en doute. Mais il se distingue du genre Hister par la sculpture des élytres, qui sont dépourvus de stries. Heer décrit d'Oeningen (Croatie) huit espèces d'Hister qui sont de taille sensiblement plus grande et qui ont des élytres striés[4].
+          <t>Holotype fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype R07712 vient de la collection Piton, collection conservée au Muséum national d'histoire naturelle à Paris. Ce spécimen du Néogène provient du lac Chambon, en Puy-de-Dôme. 
 </t>
         </is>
       </c>
@@ -585,12 +591,202 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique est nommée d'après le nom du collectionneur et paléoentomologiste le Dr Louis Émile Piton, ami de Nicolas Théobald.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hister pitoni est renommée Plegaderus pitoni en 2019 par Dégallier (d), Garrouste &amp; Nel,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nous avons l'empreinte et la contre-empreinte d'un insecte de petite taille, privé des pattes et des antennes.
+La tête est retirée dans l'évasement du prothorax et arrondie à l'avant, avec deux petits yeux sur les côtés.
+Le corselet est fortement échancré à l'avant et prolongé sur les côtés par deux pointes ; les bords latéraux sont convexes ; il est arrondi à l'arrière ; sa surface est finement chagrinée.
+Les élytres ont des angles nettement coupés à l'avant ; leur bord antérieur est concave ; ils dépassent le prothorax. Ceci n'est probablement qu'une apparence, due au fait que les élytres fortement bombés ont été écrasés lors de la fossilisation. L'épipleure est étroite. Le bord sutural est marqué par une ligne brun foncé. Les élytres, appliqués contre l'abdomen, laissent à découvert les deux derniers segments. L'avant-dernier a une largeur de 0,5 mm ; le dernier est encore plus étroit et arrondi à l'extrémité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype a une longueur totale de 1,1 mm; largeur de la tête : 0,3 mm; longueur du corselet :0,6 mm; longueur de l'élytre : 0,9 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'attribution de l'échantillon aux Histeridae ne peut être mise en doute. Mais il se distingue du genre Hister par la sculpture des élytres, qui sont dépourvus de stries. Heer décrit d'Oeningen (Croatie) huit espèces d'Hister qui sont de taille sensiblement plus grande et qui ont des élytres striés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plegaderus_pitoni</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Histéridés sont rares dans les pays froids, abondants dans les contrées chaudes. Leurs larves carnassières vivent souvent avec les fourmis et les termites[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Histéridés sont rares dans les pays froids, abondants dans les contrées chaudes. Leurs larves carnassières vivent souvent avec les fourmis et les termites.
 </t>
         </is>
       </c>
